--- a/public_html/SEO/СЯ.xlsx
+++ b/public_html/SEO/СЯ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akorobov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\new\Ikstlan\MoveToIkstlan\public_html\SEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Запрос</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">   купить норвежского котенка в москве</t>
+  </si>
+  <si>
+    <t>Норвежские лесные красавицы</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -583,17 +586,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -607,22 +610,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -636,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -644,7 +647,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -686,17 +689,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -710,22 +713,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -739,12 +742,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -772,22 +775,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -815,22 +818,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -858,22 +861,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -887,19 +890,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -913,12 +916,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -932,22 +935,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -989,17 +992,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1055,12 +1058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1102,21 @@
         <v>567</v>
       </c>
       <c r="D57">
-        <v>567</v>
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/SEO/СЯ.xlsx
+++ b/public_html/SEO/СЯ.xlsx
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/public_html/SEO/СЯ.xlsx
+++ b/public_html/SEO/СЯ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Запрос</t>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">    норвежская лесная купить в москве</t>
   </si>
   <si>
-    <t xml:space="preserve">    норвежская лесная кошка купить +в москве</t>
-  </si>
-  <si>
     <t xml:space="preserve">    норвежская лесная кошка купить в москве</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t xml:space="preserve">    фото котят норвежской кошки</t>
   </si>
   <si>
-    <t xml:space="preserve">    котята норвежской лесной кошки купить +в москве</t>
-  </si>
-  <si>
     <t xml:space="preserve">    котята норвежской лесной кошки купить</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>Норвежские лесные красавицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    котята норвежской лесной кошки купить в москве</t>
   </si>
 </sst>
 </file>
@@ -561,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -641,7 +638,7 @@
     </row>
     <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -649,7 +646,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>152</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>127</v>
@@ -715,7 +712,7 @@
     </row>
     <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -744,7 +741,7 @@
     </row>
     <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -777,17 +774,17 @@
     </row>
     <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,17 +817,17 @@
     </row>
     <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,17 +860,17 @@
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -892,7 +889,7 @@
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4"/>
     </row>
@@ -937,17 +934,17 @@
     </row>
     <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,17 +991,17 @@
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>122</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>14</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,7 +1076,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>8</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>3014</v>
@@ -1107,7 +1104,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>

--- a/public_html/SEO/СЯ.xlsx
+++ b/public_html/SEO/СЯ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Запрос</t>
   </si>
@@ -197,10 +197,19 @@
     <t xml:space="preserve">   купить норвежского котенка в москве</t>
   </si>
   <si>
-    <t>Норвежские лесные красавицы</t>
-  </si>
-  <si>
     <t xml:space="preserve">    котята норвежской лесной кошки купить в москве</t>
+  </si>
+  <si>
+    <t>котенок в подарок на новый год</t>
+  </si>
+  <si>
+    <t>норвежский котенок в подарок</t>
+  </si>
+  <si>
+    <t>котенок в подарок</t>
+  </si>
+  <si>
+    <t>норвежские лесные красавицы</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -889,7 +898,7 @@
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4"/>
     </row>
@@ -1104,7 +1113,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1114,6 +1123,48 @@
       </c>
       <c r="D58" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2284</v>
+      </c>
+      <c r="C59">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4">
+        <v>130</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
